--- a/results_it/early_April_corr_ranking.xlsx
+++ b/results_it/early_April_corr_ranking.xlsx
@@ -453,1405 +453,1405 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>min_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.58427661585319</v>
+        <v>0.4779208945945099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001095795413406169</v>
+        <v>0.006544254255539826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5842766158531898</v>
+        <v>0.444326802093376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001095795413406175</v>
+        <v>0.01227279789041435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>min_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5247111112181629</v>
+        <v>0.4338481669511626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004148626005360439</v>
+        <v>0.01475188773510865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>mean_vapor_pressure_hPa_120days_sum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5103197562623376</v>
+        <v>0.4218660340445567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005527793505506796</v>
+        <v>0.01808523038874033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>mean_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5103197562623376</v>
+        <v>0.4031314875001227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005527793505506796</v>
+        <v>0.02453209255146324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>mean_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5074402698468338</v>
+        <v>0.4021261681289771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005845998624613535</v>
+        <v>0.02492539530095255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5074402698468338</v>
+        <v>0.3897749100584074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005845998624613535</v>
+        <v>0.03019349007182561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5049090110760908</v>
+        <v>0.3686698906594646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006138412277802449</v>
+        <v>0.041267204867429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>mean_vapor_pressure_hPa_90days_sum</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5049090110760908</v>
+        <v>0.3628577172091449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006138412277802449</v>
+        <v>0.04482965146859462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>min_temp_C_90days_sum</t>
+          <t>min_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4946486036533979</v>
+        <v>0.3621324840773801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007453859235041939</v>
+        <v>0.04529088807636077</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_90days_sum</t>
+          <t>mean_humidity_pct_91-120days_avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4867644501187783</v>
+        <v>0.3527608779560417</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008619440580626549</v>
+        <v>0.05159860488860802</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4847302825329505</v>
+        <v>0.3525036312940328</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008943862459495019</v>
+        <v>0.05178108329465892</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_120days_sum</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4779770462000055</v>
+        <v>0.345419418968152</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01009537820059541</v>
+        <v>0.05701034349191676</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4753863658377379</v>
+        <v>0.3328135840696305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01056887827740379</v>
+        <v>0.0673355519213083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4658751888003065</v>
+        <v>0.3257119171201403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0124695167093423</v>
+        <v>0.0737626743231103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_14days_sum</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4475918898713926</v>
+        <v>0.3233823443932618</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01692507321127393</v>
+        <v>0.07597129544483847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_120days_sum</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4466379532516229</v>
+        <v>0.3207037091765381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01718957480080117</v>
+        <v>0.0785736178814906</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4387746917534417</v>
+        <v>0.3155958840802658</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0195024109656985</v>
+        <v>0.08372570449496597</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4278893430639084</v>
+        <v>0.314220708658802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02312032898853112</v>
+        <v>0.08515608680043969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>max_temp_C_1-7days_avg</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4167899384940178</v>
+        <v>0.3117851866222675</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02735586037698041</v>
+        <v>0.0877352048260341</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4167899384940178</v>
+        <v>0.3115910266385198</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02735586037698041</v>
+        <v>0.08794335159843893</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4145977630868986</v>
+        <v>0.3107194728440094</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02826254000585868</v>
+        <v>0.08888233871164393</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_90days_sum</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4056056676456293</v>
+        <v>0.3090827680383498</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03223984767958057</v>
+        <v>0.09066632463590421</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>mean_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3932444035253697</v>
+        <v>0.3065602616763094</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03843094716549432</v>
+        <v>0.09346906230824176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mean_temp_C_90days_sum</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3929041345971941</v>
+        <v>0.3030276505526171</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03861392234214285</v>
+        <v>0.09750413275606942</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3815935278254687</v>
+        <v>0.303027650552617</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04510307821722544</v>
+        <v>0.09750413275606942</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3783676684806248</v>
+        <v>0.3022557075525288</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04710409500508719</v>
+        <v>0.09840316345824578</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>max_temp_C_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3705630404064705</v>
+        <v>0.3014798416822743</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05223631982077943</v>
+        <v>0.09931306543546541</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>min_temp_C_120days_sum</t>
+          <t>mean_humidity_pct_14days_sum</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3608012691021603</v>
+        <v>0.296077288718462</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05926338035902462</v>
+        <v>0.1058261484974727</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_61-90days_avg</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3576909476327264</v>
+        <v>0.2919764598852728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06165086312125569</v>
+        <v>0.1109802692081896</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>sunshine_duration_h_120days_sum</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3576869165751726</v>
+        <v>-0.291882871891404</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06165400521437812</v>
+        <v>0.1111000458611551</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>min_temp_C_61-90days_avg</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3419779462394351</v>
+        <v>0.2862570304953225</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07487651474294849</v>
+        <v>0.1184790925762624</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>total_precip_mm_120days_sum</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3277318272198916</v>
+        <v>0.2862570304953225</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08865909125762847</v>
+        <v>0.1184790925762624</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>max_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3143006173064299</v>
+        <v>0.2862331119544599</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1033385810827871</v>
+        <v>0.1185112228153991</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>total_precip_mm_120days_sum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.310930538392896</v>
+        <v>0.2854947359925035</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1072917590146758</v>
+        <v>0.1195062835384487</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mean_temp_C_120days_sum</t>
+          <t>mean_humidity_pct_120days_sum</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3099709368010398</v>
+        <v>0.2776405231781134</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1084377346515034</v>
+        <v>0.1304775424543374</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_91-120days_avg</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3031781113473883</v>
+        <v>0.2758461408472598</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1168118399737205</v>
+        <v>0.1330846521145907</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>total_precip_mm_91-120days_avg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2890876095740567</v>
+        <v>0.2754125978736808</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1356902828280183</v>
+        <v>0.1337202468261124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mean_temp_C_61-90days_avg</t>
+          <t>sunshine_duration_h_90days_sum</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2890073614255239</v>
+        <v>-0.2728492499872859</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1358037841726072</v>
+        <v>0.1375237497501447</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>total_precip_mm_91-120days_avg</t>
+          <t>max_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2885955092776902</v>
+        <v>0.271969305254674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1363873849491438</v>
+        <v>0.1388474523316087</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>max_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2865513788561594</v>
+        <v>0.2675132705336883</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1393109161085992</v>
+        <v>0.14569360149102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>sunshine_duration_h_61-90days_avg</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2745371877599513</v>
+        <v>-0.2452456905874785</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1574155707220401</v>
+        <v>0.1835936837382016</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.272592547573424</v>
+        <v>0.237973607143095</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1604966822092114</v>
+        <v>0.197347435250163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2688832399019308</v>
+        <v>0.2287307670166361</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1664921769281283</v>
+        <v>0.2158376245367406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.2670406539101021</v>
+        <v>0.2212405399836826</v>
       </c>
       <c r="C46" t="n">
-        <v>0.169528578887303</v>
+        <v>0.2316628725569533</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>total_precip_mm_61-90days_avg</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2580841384554838</v>
+        <v>0.2212405399836825</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1848448139660587</v>
+        <v>0.2316628725569533</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2527622248246417</v>
+        <v>0.2209806997922742</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1943886413703666</v>
+        <v>0.2322254960921341</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2509340157465122</v>
+        <v>0.2209806997922742</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1977442818982918</v>
+        <v>0.2322254960921341</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>mean_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.2422211081672376</v>
+        <v>0.2098862218990712</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2142838481379239</v>
+        <v>0.2571077384134087</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>max_temp_C_90days_sum</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2420602622218041</v>
+        <v>0.2038879768539393</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2145977360091089</v>
+        <v>0.2712638719494202</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>total_precip_mm_90days_sum</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2392155367216042</v>
+        <v>0.2038879768539392</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2202007418776155</v>
+        <v>0.2712638719494202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2313901341617651</v>
+        <v>0.2008898099886705</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2361199590985184</v>
+        <v>0.2785256003654697</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.2209270284788734</v>
+        <v>0.200483102080619</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2585745492451241</v>
+        <v>0.2795202269983268</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>total_precip_mm_90days_sum</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.2209270284788734</v>
+        <v>0.196782496215606</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2585745492451241</v>
+        <v>0.2886752224495702</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>total_precip_mm_61-90days_avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2167642340915515</v>
+        <v>0.1955900245659261</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2678827236043405</v>
+        <v>0.2916656006618206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>max_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2066533402785088</v>
+        <v>0.1951664931634795</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2913824181750521</v>
+        <v>0.2927324241382176</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.2062820297726206</v>
+        <v>0.1929179077147391</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2922694778239655</v>
+        <v>0.2984378351264437</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2007516673271291</v>
+        <v>-0.1912490428869207</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3056832207464372</v>
+        <v>0.3027174494279455</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_15-30days_avg</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1957329671216714</v>
+        <v>-0.1912490428869207</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3181827992680676</v>
+        <v>0.3027174494279455</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>mean_humidity_pct_90days_sum</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1907186963553165</v>
+        <v>0.1911019531540299</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3309811363239707</v>
+        <v>0.3030964884518794</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>max_temp_C_120days_sum</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1877898864748654</v>
+        <v>0.1846256521691026</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3385993817432633</v>
+        <v>0.3200812932674869</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>min_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.1792532948269058</v>
+        <v>0.1842922351908989</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3614017209955068</v>
+        <v>0.3209713597369467</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>mean_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1605507538114332</v>
+        <v>0.1842478092085225</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4144223039172579</v>
+        <v>0.3210900717218347</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1598442375059141</v>
+        <v>-0.1837231091027129</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4165062334023319</v>
+        <v>0.3224941929790932</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>max_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1545448747152959</v>
+        <v>0.1629290694068044</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4323214280140242</v>
+        <v>0.3811688445131357</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.1533527242842104</v>
+        <v>0.1629290694068044</v>
       </c>
       <c r="C67" t="n">
-        <v>0.43592373606733</v>
+        <v>0.3811688445131357</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.1533527242842103</v>
+        <v>0.1607719140745848</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43592373606733</v>
+        <v>0.3875904709353681</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
+          <t>max_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1500511345686982</v>
+        <v>0.1554143978737249</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4459846053572942</v>
+        <v>0.4038069264062755</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.149885188202549</v>
+        <v>-0.153660082721826</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4464935513589394</v>
+        <v>0.4091993709593874</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_15-30days_avg</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.1377733875752287</v>
+        <v>0.1488843527172313</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4844674078743136</v>
+        <v>0.4240829680154844</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>max_temp_C_61-90days_avg</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1230408484423812</v>
+        <v>0.14261708255291</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5327822295515897</v>
+        <v>0.4440620072185547</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_14days_sum</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.122872501929211</v>
+        <v>0.141260830497334</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5333472505063008</v>
+        <v>0.4484514596495058</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1190378540951615</v>
+        <v>0.1297653029114243</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5462941025917495</v>
+        <v>0.4865775670905274</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1148323962200375</v>
+        <v>-0.1294548643320065</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5606591293703704</v>
+        <v>0.4876296357874993</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_120days_sum</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.1059792928356072</v>
+        <v>-0.1294548643320065</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5914488824875201</v>
+        <v>0.4876296357874993</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.1046563458708805</v>
+        <v>0.1271229218794056</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5961118803864858</v>
+        <v>0.4955695569484435</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_90days_sum</t>
+          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.1005672245906432</v>
+        <v>0.1239532426115744</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6106233744147747</v>
+        <v>0.5064657048970834</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>mean_humidity_pct_61-90days_avg</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.09793690216874708</v>
+        <v>0.1110447713059367</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6200350133270823</v>
+        <v>0.5520388231673679</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_90days_sum</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.09652344291253048</v>
+        <v>-0.1103709827744596</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6251169796654843</v>
+        <v>0.5544688851853631</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.09571330577982386</v>
+        <v>-0.1018335314793986</v>
       </c>
       <c r="C81" t="n">
-        <v>0.628037352878027</v>
+        <v>0.5856808039160676</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mean_temp_C_15-30days_avg</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09087444925471221</v>
+        <v>-0.1014681183352283</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6455934467949247</v>
+        <v>0.5870337589219651</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_61-90days_avg</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.08866505758703924</v>
+        <v>-0.09853240320960305</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6536723976074923</v>
+        <v>0.5979527228886091</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_61-90days_avg</t>
+          <t>mean_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.08132451622034244</v>
+        <v>-0.09445638582688651</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6807852235760625</v>
+        <v>0.6132557993841697</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.08045616059030708</v>
+        <v>0.07562945805861118</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6840191995769047</v>
+        <v>0.6859459916015863</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.07882165416256201</v>
+        <v>-0.07428087958690921</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6901212925445832</v>
+        <v>0.6912699988185003</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07659822671301689</v>
+        <v>-0.07428087958690915</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6984524615463086</v>
+        <v>0.6912699988185003</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>total_precip_mm_14days_sum</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.06426496100537171</v>
+        <v>0.07156880697218586</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7452641298557153</v>
+        <v>0.7020205657917429</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>mean_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.06292701933999884</v>
+        <v>0.06956106484434274</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7503994532166138</v>
+        <v>0.7100158700716621</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_90days_sum</t>
+          <t>mean_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.06278312449039886</v>
+        <v>0.06576019733122986</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7509523789427754</v>
+        <v>0.7252343137327806</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_120days_sum</t>
+          <t>mean_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.06266584817329206</v>
+        <v>0.06570257184234921</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7514031101941588</v>
+        <v>0.7254658526313618</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_61-90days_avg</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.05725881977341356</v>
+        <v>0.06183076293659349</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7722685255325319</v>
+        <v>0.7410762742779584</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>max_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.05178613660284885</v>
+        <v>0.06100601484092121</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7935462199967399</v>
+        <v>0.7444148302289556</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>sunshine_duration_h_91-120days_avg</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.0517861366028488</v>
+        <v>-0.05930966032546037</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7935462199967405</v>
+        <v>0.7512958820366104</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_120days_sum</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.04759728529404596</v>
+        <v>0.05723978385468736</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8099315426572797</v>
+        <v>0.7597174735784386</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04755015513238381</v>
+        <v>0.04922182988883104</v>
       </c>
       <c r="C96" t="n">
-        <v>0.810116359848398</v>
+        <v>0.7925870228609576</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04755015513238377</v>
+        <v>-0.04400247196452566</v>
       </c>
       <c r="C97" t="n">
-        <v>0.810116359848398</v>
+        <v>0.814176794515941</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>max_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04168741225979836</v>
+        <v>0.04174449794356825</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8331813222821254</v>
+        <v>0.8235594459377238</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mean_temp_C_91-120days_avg</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.02889693703079109</v>
+        <v>-0.03421477421926011</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8839474626666984</v>
+        <v>0.8550141074406976</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>max_temp_C_91-120days_avg</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.02747742319085156</v>
+        <v>0.02724634112413729</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8896130942028122</v>
+        <v>0.884320908385116</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_91-120days_avg</t>
+          <t>max_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02557902732872634</v>
+        <v>0.02719211959771894</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8971983145316667</v>
+        <v>0.8845495852408477</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_91-120days_avg</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.02500337552462575</v>
+        <v>0.02269119944744174</v>
       </c>
       <c r="C102" t="n">
-        <v>0.899500164351325</v>
+        <v>0.9035620766036326</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>total_precip_mm_14days_sum</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.02027672305468994</v>
+        <v>-0.02068152247883148</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9184290025135213</v>
+        <v>0.9120687976599813</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.01792330568148923</v>
+        <v>0.01995757732007731</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9278706298251531</v>
+        <v>0.9151355596279342</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>min_temp_C_91-120days_avg</t>
+          <t>max_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.004490157720460242</v>
+        <v>-0.01977510577088343</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9819083395684685</v>
+        <v>0.915908732522328</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>mean_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.004195240804969445</v>
+        <v>0.01879859275039495</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9830964401666809</v>
+        <v>0.92004770110366</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>max_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.003087519286075625</v>
+        <v>-0.0137366364910619</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9875592955188393</v>
+        <v>0.9415334292541733</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0007454911846934073</v>
+        <v>-0.008607093530110504</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9969960451445188</v>
+        <v>0.9633471591304885</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_91-120days_avg</t>
+          <t>mean_humidity_pct_15-30days_avg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.0006181731160642967</v>
+        <v>0.006279314921154792</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9975090712522505</v>
+        <v>0.9732557087155695</v>
       </c>
     </row>
   </sheetData>
